--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.798783666666666</v>
+        <v>0.06373566666666666</v>
       </c>
       <c r="H2">
-        <v>5.396350999999999</v>
+        <v>0.191207</v>
       </c>
       <c r="I2">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="J2">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.42645866666666</v>
+        <v>20.854426</v>
       </c>
       <c r="N2">
-        <v>112.279376</v>
+        <v>62.563278</v>
       </c>
       <c r="O2">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="P2">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="Q2">
-        <v>67.32210255077509</v>
+        <v>1.329170744060667</v>
       </c>
       <c r="R2">
-        <v>605.8989229569759</v>
+        <v>11.962536696546</v>
       </c>
       <c r="S2">
-        <v>0.05603422077719452</v>
+        <v>0.001595898806801879</v>
       </c>
       <c r="T2">
-        <v>0.05603422077719452</v>
+        <v>0.001595898806801879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.798783666666666</v>
+        <v>0.06373566666666666</v>
       </c>
       <c r="H3">
-        <v>5.396350999999999</v>
+        <v>0.191207</v>
       </c>
       <c r="I3">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="J3">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>284.883469</v>
       </c>
       <c r="O3">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="P3">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="Q3">
-        <v>170.8145769801799</v>
+        <v>6.052412606342555</v>
       </c>
       <c r="R3">
-        <v>1537.331192821619</v>
+        <v>54.471713457083</v>
       </c>
       <c r="S3">
-        <v>0.1421741353257882</v>
+        <v>0.00726696558729995</v>
       </c>
       <c r="T3">
-        <v>0.1421741353257882</v>
+        <v>0.00726696558729995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.798783666666666</v>
+        <v>0.06373566666666666</v>
       </c>
       <c r="H4">
-        <v>5.396350999999999</v>
+        <v>0.191207</v>
       </c>
       <c r="I4">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="J4">
-        <v>0.2319744053785674</v>
+        <v>0.01058875298517695</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>22.553069</v>
       </c>
       <c r="N4">
-        <v>67.65920699999999</v>
+        <v>67.65920700000001</v>
       </c>
       <c r="O4">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="P4">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="Q4">
-        <v>40.56809215040632</v>
+        <v>1.437434888094334</v>
       </c>
       <c r="R4">
-        <v>365.1128293536569</v>
+        <v>12.936913992849</v>
       </c>
       <c r="S4">
-        <v>0.03376604927558473</v>
+        <v>0.001725888591075125</v>
       </c>
       <c r="T4">
-        <v>0.03376604927558473</v>
+        <v>0.001725888591075125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.348101</v>
       </c>
       <c r="I5">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="J5">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.42645866666666</v>
+        <v>20.854426</v>
       </c>
       <c r="N5">
-        <v>112.279376</v>
+        <v>62.563278</v>
       </c>
       <c r="O5">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="P5">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="Q5">
-        <v>66.72016034055288</v>
+        <v>37.17719218167533</v>
       </c>
       <c r="R5">
-        <v>600.4814430649759</v>
+        <v>334.594729635078</v>
       </c>
       <c r="S5">
-        <v>0.05553320608180136</v>
+        <v>0.04463763358326805</v>
       </c>
       <c r="T5">
-        <v>0.05553320608180135</v>
+        <v>0.04463763358326805</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.348101</v>
       </c>
       <c r="I6">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="J6">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>284.883469</v>
       </c>
       <c r="O6">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="P6">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="Q6">
         <v>169.2872850491521</v>
@@ -818,10 +818,10 @@
         <v>1523.585565442369</v>
       </c>
       <c r="S6">
-        <v>0.1409029240888858</v>
+        <v>0.2032585936937688</v>
       </c>
       <c r="T6">
-        <v>0.1409029240888858</v>
+        <v>0.2032585936937688</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.348101</v>
       </c>
       <c r="I7">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="J7">
-        <v>0.2299002695301921</v>
+        <v>0.2961697031425515</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>22.553069</v>
       </c>
       <c r="N7">
-        <v>67.65920699999999</v>
+        <v>67.65920700000001</v>
       </c>
       <c r="O7">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="P7">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="Q7">
-        <v>40.20536362398966</v>
+        <v>40.20536362398968</v>
       </c>
       <c r="R7">
         <v>361.848272615907</v>
       </c>
       <c r="S7">
-        <v>0.03346413935950496</v>
+        <v>0.04827347586551468</v>
       </c>
       <c r="T7">
-        <v>0.03346413935950496</v>
+        <v>0.04827347586551468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>12.518248</v>
       </c>
       <c r="I8">
-        <v>0.5381253250912404</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="J8">
-        <v>0.5381253250912406</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.42645866666666</v>
+        <v>20.854426</v>
       </c>
       <c r="N8">
-        <v>112.279376</v>
+        <v>62.563278</v>
       </c>
       <c r="O8">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="P8">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="Q8">
-        <v>156.1712304503609</v>
+        <v>87.02029218854932</v>
       </c>
       <c r="R8">
-        <v>1405.541074053248</v>
+        <v>783.182629696944</v>
       </c>
       <c r="S8">
-        <v>0.1299860354109052</v>
+        <v>0.104482874823882</v>
       </c>
       <c r="T8">
-        <v>0.1299860354109052</v>
+        <v>0.104482874823882</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>12.518248</v>
       </c>
       <c r="I9">
-        <v>0.5381253250912404</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="J9">
-        <v>0.5381253250912406</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>284.883469</v>
       </c>
       <c r="O9">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="P9">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="Q9">
         <v>396.2491017824791</v>
@@ -1004,10 +1004,10 @@
         <v>3566.241916042312</v>
       </c>
       <c r="S9">
-        <v>0.3298101041229114</v>
+        <v>0.4757654135533031</v>
       </c>
       <c r="T9">
-        <v>0.3298101041229115</v>
+        <v>0.4757654135533031</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>12.518248</v>
       </c>
       <c r="I10">
-        <v>0.5381253250912404</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="J10">
-        <v>0.5381253250912406</v>
+        <v>0.6932415438722715</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>22.553069</v>
       </c>
       <c r="N10">
-        <v>67.65920699999999</v>
+        <v>67.65920700000001</v>
       </c>
       <c r="O10">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="P10">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="Q10">
-        <v>94.10830363437064</v>
+        <v>94.10830363437067</v>
       </c>
       <c r="R10">
-        <v>846.974732709336</v>
+        <v>846.9747327093361</v>
       </c>
       <c r="S10">
-        <v>0.07832918555742388</v>
+        <v>0.1129932554950865</v>
       </c>
       <c r="T10">
-        <v>0.07832918555742389</v>
+        <v>0.1129932554950865</v>
       </c>
     </row>
   </sheetData>
